--- a/project/src/main/resources/static/templates/review_template.xlsx
+++ b/project/src/main/resources/static/templates/review_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Compressed\web-program\web-program\project\src\main\resources\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FFF4DB-AA78-468B-9950-2FE43449737E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D321631-C5B4-4702-A5C5-497962B43945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6504" yWindow="2196" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,681 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检 查 点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次自检共  项，其中评审项： ，无关项： ，风险项： ）</t>
+    </r>
+  </si>
+  <si>
+    <t>设计填写栏</t>
+  </si>
+  <si>
+    <t>校审填写栏</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>一.共性内容检查</t>
+  </si>
+  <si>
+    <t>内审</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>正式图</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核对图纸中的数模是不是最新工艺数模，工艺内容是否缺失（注意冲压方向转角度的情况，是否正确导出）：数模版本日期 （</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GY03-20230718</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）；</t>
+    </r>
+  </si>
+  <si>
+    <t>模具中心是否与绝对坐标中心一致</t>
+  </si>
+  <si>
+    <t>CH孔位置尺寸是否与工艺数模一致（特别注意CH孔的工法方向），CH凸模吃入量超出料厚2-3mm；（2017-07-25）</t>
+  </si>
+  <si>
+    <t>模具筋条尽量不要与机床T槽重合;模具筋条边缘与机床T槽边缘距离最少5mm，如重合筋条底面补肉大于T槽边缘单边10mm（2023-8-7）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">筋厚是否满足客户标准？（ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型面：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 60</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mm，主筋： </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mm，副筋：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（2023-8-7）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>筋间距是否满足客户要求？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（最大筋距：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>380</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mm）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（2023-8-7）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模具所有起吊钢丝绳经过处倒R15圆角，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钢丝绳翻转轨迹与行程限位块和存放氮气弹簧不干涉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；（2017-07-25）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存放氮气缸压力是上模、压芯总重量的1.5倍-2.5倍（具体按照项目要求做），存放块存放比弹性低5mm；翻转管存放比弹性低20mm；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（存放氮气缸型号：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TU5000-100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（2023-8-7）</t>
+    </r>
+  </si>
+  <si>
+    <t>是否有说明层：包括模具行程图、顶杆布置图（拉延）、斜楔行程图以及相关冲裁力压料力的计算；　　　　　　　　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>模具运输连接板、漏水孔、导板窥视孔（导腿处、压芯托芯导滑处、DR凸模处）、墩死块窥视孔、过线孔、快速定位窥视孔是否设计；</t>
+  </si>
+  <si>
+    <t>电路盒、气路接头放置位置符合客户要求？检查电、气路过线是否畅通，感应器过线孔通常要开在感应器正下方，方便安装；（2023-8-7）</t>
+  </si>
+  <si>
+    <t>压力源（顶杆）行程是否与压芯、托芯、小凸芯、压边圈行程一致；安全行程为ST+15mm（DR为ST+20mm）；工作侧销能否用双槽（有CAM、氮气弹簧时不能用）；</t>
+  </si>
+  <si>
+    <t>压料芯行程（工作限位间距）为整0或整5，氮气缸行程比侧销限位行程少2mm， 使用行程最大为氮气缸行程的90%；氮气弹簧余量最少5mm（2023-8-7）</t>
+  </si>
+  <si>
+    <t>检查氮气弹簧与对顶块接触情况（接触面＞90%），不要顶在螺钉孔上（2023-8-7）</t>
+  </si>
+  <si>
+    <t>刀块螺孔销孔是否悬空，螺孔销孔距离铸件边界最少10mm；</t>
+  </si>
+  <si>
+    <t>工作、安全螺栓的长度要求全部相同；</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全平台符合客户要求:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(长*度*高=</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">150*150*150  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mm)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（2023-8-7）</t>
+    </r>
+  </si>
+  <si>
+    <t>安全平台、传力部位及工作部位下要有加强或有筋支撑？限位块、墩死块支撑面积≥限位块面积的一半  （2023-8-7）</t>
+  </si>
+  <si>
+    <t>定位键安装槽直边长度要比定位键单边长1mm，刀块上定位键卡槽要比安装槽单边长5mm；</t>
+  </si>
+  <si>
+    <t>运输连接板安装孔采用CSN16铸入式螺栓，有客户特殊要求的按客户要求；</t>
+  </si>
+  <si>
+    <t>模具取件装置：A 空手槽；B 气缸；C 机械手（吸盘）；D 其它；</t>
+  </si>
+  <si>
+    <t>上、下模镶块的拼接缝最小错开5毫米；（2023-8-7）</t>
+  </si>
+  <si>
+    <t>标准件安装面比标准件大5mm，若无法满足，则需要贴量加工保证；</t>
+  </si>
+  <si>
+    <t>铸造孔是否满足要求（1.盲孔：直径≥50，高度与直径比≤1.5；2.通孔：直径≥40，高度与直径比≤2.5；3.筋板上的穿线孔、漏水孔≥40）；若不能满足，需贴量加工；</t>
+  </si>
+  <si>
+    <t>检查导板与导滑面是否错位，压料芯氮气弹簧与氮气弹簧安装面、氮气弹簧过渡垫块及过渡垫块安装面之间是否存在错位现象；</t>
+  </si>
+  <si>
+    <t>整体热处理镶块孔边缘距离镶块边缘（壁厚）≥8mm；</t>
+  </si>
+  <si>
+    <t>检查铸件X、Y、Z方向的断面，是否存在过厚过薄处；</t>
+  </si>
+  <si>
+    <t>确认氮气弹簧是否需要串联；串联实体表示出来</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>拆卸压料芯前需要拆除的刀块都要标识“X”；</t>
+  </si>
+  <si>
+    <t>模具的各部件的行程关系都已经分析，且有行程关系图，压料板行程及压力工艺特别指示需与工艺模拟完全一致</t>
+  </si>
+  <si>
+    <t>工艺内容偏单边的需要设计上、下模座的防侧（2023-8-7）</t>
+  </si>
+  <si>
+    <t>压料板导板及侧销面距离分模线7-10mm,优选10mm,保证取出无干涉（2024-2-19）</t>
+  </si>
+  <si>
+    <t>铸钢材质的铸件超出以下重量和尺寸无法铸造：重量最大为5T，尺寸最大为长4300，宽1900（2024-10-30）</t>
+  </si>
+  <si>
+    <t>45#钢垫板最大采购尺寸是5000X2400X180，检查是否超过该尺寸（2024-10-30）</t>
+  </si>
+  <si>
+    <t>二.定位及导向结构检查</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制件定位方式是否稳定可靠,优先选择定位板，拉延使用平板料检查定位板定位直边高度20mm；后工序直边高度5-10mm（2023-8-7）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定位板锁付螺钉需体现-20250610</t>
+    </r>
+  </si>
+  <si>
+    <t>导滑面长度是否为ST+80mm；若为复合导向，导腿导板先导柱导入 30-50 mm；到底状态，导向过滑10mm；导柱、导套的拆卸孔、导板窥视孔是否设计；（2023-8-7）</t>
+  </si>
+  <si>
+    <t>导柱、导套背托尺寸为 40 mm；20厚的导板背托厚度15mm，不用帖量(涂蓝色)；</t>
+  </si>
+  <si>
+    <t>三、结构防反、防呆检查</t>
+  </si>
+  <si>
+    <t>上下模、上模与压边圈（内导）导腿要设置防反,单侧相差10mm，双侧20mm；</t>
+  </si>
+  <si>
+    <t>相似镶块螺钉相差5mm进行防反，；</t>
+  </si>
+  <si>
+    <t>四.操作方便性、安全性检查</t>
+  </si>
+  <si>
+    <t>压芯・复合机构・斜楔等是否设置起吊、翻转螺纹，优先采用铸入式螺栓；</t>
+  </si>
+  <si>
+    <t>上模吊棒的铸件限位块是否设计在和下模相同的位置；</t>
+  </si>
+  <si>
+    <t>存放氮气氮气缸下承受力的面筋厚需要设计到min80；</t>
+  </si>
+  <si>
+    <t>压料芯用卸料螺钉Z向肉厚MIN50侧壁肉厚MIN40，压力源若是氮气弹簧，工作螺钉必须增加聚氨酯垫圈（CSRUR）；</t>
+  </si>
+  <si>
+    <t>压料芯侧销处要倒角加强；</t>
+  </si>
+  <si>
+    <t>五.模具加工工艺性检查</t>
+  </si>
+  <si>
+    <t>导板安装面及导滑面加工是否有问题（侧面让空最小35mm)；</t>
+  </si>
+  <si>
+    <t>斜楔滑块导板安装面距侧面导滑面小于35mm时，考虑加工走刀，导板背托都要局部避让掉；</t>
+  </si>
+  <si>
+    <t>螺、销钉孔边缘距侧壁至少保证有10mm的距离，防止铸造误差，无法钻孔；</t>
+  </si>
+  <si>
+    <t>刃口复杂或不好加工的地方需要镶钢（最小加工圆角Φ4,高度10mm）；</t>
+  </si>
+  <si>
+    <t>导柱安装孔加工深度正常要小于250，当深度大于等于250时，要有以导柱安装孔中心线为轴，半径大于115的空间避让;</t>
+  </si>
+  <si>
+    <t>侧销安装孔是否在江福设备加工能力范围内； （常用侧销规格￠50能达到550，侧销中心距侧壁MIN60）；</t>
+  </si>
+  <si>
+    <t>侧修边冲孔需要线切割的镶块安装面必须和斜楔冲压方向一致，以保证能够线切割；</t>
+  </si>
+  <si>
+    <t>定位键槽靠侧壁的一端，距侧壁的距离要≥35mm，除非侧壁高度小于45mm；</t>
+  </si>
+  <si>
+    <t>防脱安全螺栓限位不加工，外部项目为贴量粗加工（拉延模除外）具体按客户要求；</t>
+  </si>
+  <si>
+    <t>大部件设计3处三销基准，需整数位置（2023-8-7）</t>
+  </si>
+  <si>
+    <t>六.拉延相关结构检查</t>
+  </si>
+  <si>
+    <t>拉延模顶杆顶出高度是否为170、230、280、330（330建议不选用，特殊情况下选用）四档之一，注意同时要满足机床设备顶出高度限制；</t>
+  </si>
+  <si>
+    <t>机床顶杆是否有预定出？压边圈顶杆垫块到机床间距需＞预定出行程（2023-8-7）</t>
+  </si>
+  <si>
+    <t>检查刺破刀镶块的方向是否正确，镶块的边缘和螺钉不能在圆角处；</t>
+  </si>
+  <si>
+    <t>刺破刀是否符合设计标准，让位是否倒R5；</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分体凸模固定在下模时，要确保螺栓头部和B/H的间隙在25㎜以上；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉延凸模外固定法兰位置螺栓实体图纸体现-20250610</t>
+    </r>
+  </si>
+  <si>
+    <t>凸模与压边圈之间的导板上方保证至少有25㎜间隙；</t>
+  </si>
+  <si>
+    <t>压边圈托起时，导板与导滑面贴合量小型模具min60mm，中、大模具min80mm；</t>
+  </si>
+  <si>
+    <t>定位板在上模的让空形式是否正确? 定位侧局部加工，其余铸造出来，不要破坏拉延筋，压边圈让位5mm,上模让位7mm（2023-8-7）</t>
+  </si>
+  <si>
+    <t>到底标记、左右件标记吃入量是否为0.3mm、件号标记吃入量是否为0.5mm；标记下面加5mm垫片（考虑料厚方向）；（2023-8-7）</t>
+  </si>
+  <si>
+    <t>客户生产机床顶杆孔位与调试机床孔位是否一致 (孔位不一致时，需考虑调试机床顶杆位置，并设置顶杆垫块，注意垫块螺钉孔位与生产垫块螺钉孔位中心至少保证30mm )</t>
+  </si>
+  <si>
+    <t>客户生产机床顶杆孔位与调试机床压板槽是否一致（压板槽位置不一致时，条件允许是时需 兼顾调试机床压板槽，无法兼顾时需征得技术经理同意）  待商榷</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压边圈压料面单边≥料片轮廓20mm（2023-8-7）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凸模轮廓是否与分模线完全相符</t>
+    </r>
+  </si>
+  <si>
+    <t>图纸需要设计出拉延筋，注意：定位板让空、上模顶料销不要破坏拉延筋（2023-8-7）</t>
+  </si>
+  <si>
+    <t>上模顶料销位置、数量是否正确？注意检查收缩线位置，不要顶空、不要顶在A面上（2023-8-7）</t>
+  </si>
+  <si>
+    <t>防尘盖板设计是否满足客户要求？常规外板产品区、定位板上模掏空区域需要设计防尘盖板（2023-8-7）</t>
+  </si>
+  <si>
+    <t>压边圈调压平衡块间距是否合适？优先布置到走料较大的位置，小型模具按照300-350mm;中大型模具按照400-500mm设计（2023-8-7）</t>
+  </si>
+  <si>
+    <t>拉延模设计导柱时，存放状态导柱导套吃入量控制在30-50mm（客户有特殊要求的，按客户要求执行），防止开模困难；</t>
+  </si>
+  <si>
+    <t>原则上压芯、凸模、大型斜楔设计起吊翻转，位置合理，17kg以上的镶块需设置起吊孔，规格为M16，所有镶块禁止用M6及M6以下螺钉锁符，但同时所有镶块都要考虑拆装方便性，适当增加起吊孔；（2017-07-25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +713,142 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -58,17 +856,870 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -344,31 +1995,1955 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>11</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>15</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>16</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>17</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>18</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>19</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>20</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>21</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>23</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>24</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="26"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>26</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>27</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>28</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>29</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>30</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>31</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="26"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>32</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>33</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>34</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>35</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="16"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>1</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>2</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>3</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>1</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>2</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>1</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>2</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>3</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>4</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>5</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="26"/>
+    </row>
+    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>1</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>2</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="26"/>
+    </row>
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>3</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="26"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>4</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="26"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>5</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="26"/>
+    </row>
+    <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>6</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="26"/>
+    </row>
+    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>7</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="26"/>
+    </row>
+    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>8</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="26"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13">
+        <v>9</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="46"/>
+    </row>
+    <row r="62" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
+        <v>10</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="26"/>
+    </row>
+    <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="16"/>
+      <c r="L63" s="26"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>1</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="26"/>
+    </row>
+    <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>2</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="32"/>
+    </row>
+    <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>3</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="26"/>
+    </row>
+    <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>4</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="26"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>5</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="26"/>
+    </row>
+    <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>6</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="26"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>7</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="26"/>
+    </row>
+    <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>8</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="26"/>
+    </row>
+    <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>9</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="26"/>
+    </row>
+    <row r="73" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>10</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="26"/>
+    </row>
+    <row r="74" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>11</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="26"/>
+    </row>
+    <row r="75" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>12</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="26"/>
+    </row>
+    <row r="76" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>13</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="26"/>
+    </row>
+    <row r="77" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>14</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="26"/>
+    </row>
+    <row r="78" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>15</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="26"/>
+    </row>
+    <row r="79" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
+        <v>16</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="26"/>
+    </row>
+    <row r="80" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>17</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="163">
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E4:F38">
+    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="11" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:F42 E44:F45 E47:F51">
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:F61">
+    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:F62">
+    <cfRule type="cellIs" dxfId="56" priority="16" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:F80">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:J62">
+    <cfRule type="cellIs" dxfId="51" priority="31" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 G16 G18:G19 G22:G23 G29:G30">
+    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="58" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G26">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G33 G40:J40 H41:I42 H44:I44 G45:J45 H47:I51 H64:I65 G66:J69 H70:I71 G72:J72">
+    <cfRule type="cellIs" dxfId="38" priority="60" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="61" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="62" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76:G77">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I38">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:I53 G54:J56 H57:I58 G59:J59 H60:I60 G61:J61">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:I53 G54:J56 H57:I58 G59:J59 H60:I60 G61:J62">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:I80">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4 J16 J18:J19 J22:J23 J29:J30">
+    <cfRule type="cellIs" dxfId="19" priority="51" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="52" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="53" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="16" priority="45" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="47" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="40" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="41" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J26">
+    <cfRule type="cellIs" dxfId="11" priority="33" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="34" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="cellIs" dxfId="8" priority="54" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="55" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="56" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="cellIs" dxfId="4" priority="25" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="26" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="27" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76:J77">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25:J25" xr:uid="{60F93354-17A2-495A-ACDE-CE380DA16423}">
+      <formula1>"A,B,C,D"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H4 J4 G6 J6 G12 J12 G16 J16 G26 J26 G40:J40 H44:I44 G45:J45 H53:I53 G59:J59 H60:I60 J71 H72:J72 G18:G19 G22:G23 G29:G30 G32:G33 G71:G72 G76:G77 H5:H24 I4:I24 J18:J19 J22:J23 J29:J30 J32:J33 J76:J77 G66:J69 H26:I38 H47:I51 E4:F24 E26:F38 E40:F42 E44:F45 E47:F51 E53:F62 E64:F80 G54:J56 H41:I42 H57:I58 G61:J62 H64:I65 H70:I71 H73:I80" xr:uid="{AED94D25-F99A-4665-8067-27034759BB22}">
+      <formula1>"√,×,无"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>